--- a/sch_pcb/rezonit/REZONIT_blank_zakaza.xlsx
+++ b/sch_pcb/rezonit/REZONIT_blank_zakaza.xlsx
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="310">
   <si>
     <t xml:space="preserve">                                                8 800 777-80-80      pcb@rezonit.ru</t>
   </si>
@@ -219,7 +219,7 @@
     <t xml:space="preserve">Название проекта</t>
   </si>
   <si>
-    <t xml:space="preserve">ucm_eval_v1</t>
+    <t xml:space="preserve">ucm_p1_ti_eval_v1</t>
   </si>
   <si>
     <t xml:space="preserve">Плата изготавливается: впервые / повторно</t>
@@ -240,10 +240,13 @@
     <t xml:space="preserve">Вариант изготовления</t>
   </si>
   <si>
-    <t xml:space="preserve">стандартный</t>
+    <t xml:space="preserve">суперсрочный</t>
   </si>
   <si>
     <t xml:space="preserve">срочный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">стандартный</t>
   </si>
   <si>
     <t xml:space="preserve">hiTech производство</t>
@@ -2741,7 +2744,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="36" fillId="2" borderId="37" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="36" fillId="2" borderId="37" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4611,9 +4614,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>255240</xdr:colOff>
+      <xdr:colOff>254160</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4627,7 +4630,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28440" y="47520"/>
-          <a:ext cx="1132200" cy="140400"/>
+          <a:ext cx="1131120" cy="139320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4642,15 +4645,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4659,8 +4662,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -4692,15 +4695,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4709,8 +4712,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3265920"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3264840"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -4742,15 +4745,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4759,8 +4762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -4792,15 +4795,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4809,8 +4812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -4842,15 +4845,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4859,8 +4862,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -4892,15 +4895,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4909,8 +4912,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -4942,15 +4945,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4959,8 +4962,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -4992,15 +4995,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5009,8 +5012,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3265920"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3264840"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5042,15 +5045,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5059,8 +5062,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5092,15 +5095,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5109,8 +5112,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5142,15 +5145,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5159,8 +5162,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5192,15 +5195,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5209,8 +5212,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5242,15 +5245,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5259,8 +5262,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5292,15 +5295,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5309,8 +5312,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3265920"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3264840"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5342,15 +5345,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5359,8 +5362,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5392,15 +5395,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5409,8 +5412,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5442,15 +5445,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5459,8 +5462,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5492,15 +5495,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5509,8 +5512,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5542,15 +5545,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5559,8 +5562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5592,15 +5595,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5609,8 +5612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3265920"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3264840"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5642,15 +5645,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5659,8 +5662,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5692,15 +5695,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5709,8 +5712,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5742,15 +5745,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5759,8 +5762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5792,15 +5795,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5809,8 +5812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5842,15 +5845,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5859,8 +5862,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5892,15 +5895,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5909,8 +5912,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3265920"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3264840"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5942,15 +5945,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5959,8 +5962,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5992,15 +5995,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6009,8 +6012,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -6042,15 +6045,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6059,8 +6062,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -6092,15 +6095,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6109,8 +6112,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -6142,15 +6145,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6159,8 +6162,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -6192,15 +6195,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6209,8 +6212,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3265920"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3264840"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -6242,15 +6245,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6259,8 +6262,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -6292,15 +6295,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6309,8 +6312,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -6342,15 +6345,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6359,8 +6362,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -6392,15 +6395,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6409,8 +6412,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -6442,15 +6445,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6459,8 +6462,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -6492,15 +6495,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6509,8 +6512,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3265920"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3264840"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -6542,15 +6545,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6559,8 +6562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -6592,15 +6595,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6609,8 +6612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -6642,15 +6645,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6659,8 +6662,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -6692,15 +6695,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6709,8 +6712,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -6742,15 +6745,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6759,8 +6762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -6792,15 +6795,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6809,8 +6812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3265920"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3264840"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -6842,15 +6845,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6859,8 +6862,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -6892,15 +6895,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6909,8 +6912,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -6942,15 +6945,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6959,8 +6962,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -6992,15 +6995,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7009,8 +7012,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -7042,15 +7045,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7059,8 +7062,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -7092,15 +7095,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7109,8 +7112,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3265920"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3264840"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -7142,15 +7145,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7159,8 +7162,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -7192,15 +7195,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7209,8 +7212,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -7242,15 +7245,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7259,8 +7262,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -7292,15 +7295,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7309,8 +7312,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -7342,15 +7345,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7359,8 +7362,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -7392,15 +7395,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7409,8 +7412,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3265920"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3264840"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -7442,15 +7445,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7459,8 +7462,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -7492,15 +7495,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7509,8 +7512,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -7542,15 +7545,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7559,8 +7562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -7592,15 +7595,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7609,8 +7612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -7642,15 +7645,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7659,8 +7662,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -7692,15 +7695,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7709,8 +7712,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3265920"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3264840"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -7742,15 +7745,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7759,8 +7762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -7792,15 +7795,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7809,8 +7812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -7842,15 +7845,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7859,8 +7862,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -7892,15 +7895,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7909,8 +7912,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -7942,15 +7945,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7959,8 +7962,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -7992,15 +7995,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8009,8 +8012,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3265920"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3264840"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -8042,15 +8045,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8059,8 +8062,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -8092,15 +8095,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8109,8 +8112,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -8142,15 +8145,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8159,8 +8162,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -8192,15 +8195,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8209,8 +8212,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -8242,15 +8245,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8259,8 +8262,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -8292,15 +8295,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8309,8 +8312,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3265920"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3264840"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -8342,15 +8345,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8359,8 +8362,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -8392,15 +8395,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8409,8 +8412,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -8442,15 +8445,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8459,8 +8462,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -8492,15 +8495,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8509,8 +8512,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -8542,15 +8545,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8559,8 +8562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -8592,15 +8595,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8609,8 +8612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3265920"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3264840"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -8642,15 +8645,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8659,8 +8662,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -8692,15 +8695,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8709,8 +8712,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -8742,15 +8745,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8759,8 +8762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -8792,15 +8795,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8809,8 +8812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -8842,15 +8845,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8859,8 +8862,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -8892,15 +8895,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8909,8 +8912,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3265920"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3264840"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -8942,15 +8945,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8959,8 +8962,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -8992,15 +8995,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9009,8 +9012,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -9042,15 +9045,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9059,8 +9062,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -9092,15 +9095,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9109,8 +9112,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -9142,15 +9145,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9159,8 +9162,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -9192,15 +9195,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9209,8 +9212,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3265920"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3264840"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -9242,15 +9245,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9259,8 +9262,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -9292,15 +9295,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9309,8 +9312,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -9342,15 +9345,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9359,8 +9362,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -9392,15 +9395,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9409,8 +9412,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -9442,15 +9445,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9459,8 +9462,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -9492,15 +9495,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9509,8 +9512,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3265920"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3264840"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -9542,15 +9545,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9559,8 +9562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -9592,15 +9595,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9609,8 +9612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -9642,15 +9645,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9659,8 +9662,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -9692,15 +9695,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9709,8 +9712,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -9742,15 +9745,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9759,8 +9762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -9792,15 +9795,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9809,8 +9812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3265920"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3264840"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -9842,15 +9845,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9859,8 +9862,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -9892,15 +9895,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9909,8 +9912,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -9942,15 +9945,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9959,8 +9962,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -9992,15 +9995,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10009,8 +10012,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -10042,15 +10045,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10059,8 +10062,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -10092,15 +10095,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10109,8 +10112,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3265920"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3264840"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -10142,15 +10145,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10159,8 +10162,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -10192,15 +10195,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10209,8 +10212,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -10242,15 +10245,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10259,8 +10262,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -10292,15 +10295,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10309,8 +10312,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -10342,15 +10345,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10359,8 +10362,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -10392,15 +10395,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10409,8 +10412,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3265920"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3264840"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -10442,15 +10445,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10459,8 +10462,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -10492,15 +10495,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10509,8 +10512,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -10542,15 +10545,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10559,8 +10562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -10592,15 +10595,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10609,8 +10612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -10642,15 +10645,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10659,8 +10662,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3094560"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3093480"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -10692,15 +10695,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>172440</xdr:colOff>
+      <xdr:colOff>171720</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>245160</xdr:colOff>
+      <xdr:colOff>243360</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10709,8 +10712,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8405280" y="3264840"/>
-          <a:ext cx="72720" cy="48600"/>
+          <a:off x="8404200" y="3264840"/>
+          <a:ext cx="71640" cy="47520"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -10742,15 +10745,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10759,8 +10762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="3780360"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="3779280"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -10792,15 +10795,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10809,8 +10812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4123080"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4122000"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -10842,15 +10845,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10859,8 +10862,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="4294800"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="4293720"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -10892,15 +10895,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10909,8 +10912,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8403120" y="13657680"/>
-          <a:ext cx="86400" cy="48240"/>
+          <a:off x="8402040" y="13656600"/>
+          <a:ext cx="85320" cy="47160"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -11168,8 +11171,8 @@
   </sheetPr>
   <dimension ref="A1:BK199"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W65" activeCellId="0" sqref="W65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -12073,19 +12076,19 @@
         <v>35</v>
       </c>
       <c r="AJ24" s="22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK24" s="20" t="str">
         <f aca="false">IF($AG$26&lt;14,"суперсрочный","")</f>
         <v>суперсрочный</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -12119,7 +12122,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -12155,10 +12158,10 @@
         <v>6</v>
       </c>
       <c r="AI26" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AJ26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AK26" s="1" t="n">
         <v>1</v>
@@ -12186,12 +12189,12 @@
       </c>
       <c r="AS26" s="1" t="str">
         <f aca="false">IF(Лист1!$I$24&lt;&gt;"суперсрочный","более 14 слоев согласно структуре в приложенном файле","")</f>
-        <v>более 14 слоев согласно структуре в приложенном файле</v>
+        <v/>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -12201,7 +12204,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
@@ -12225,7 +12228,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -12259,7 +12262,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -12293,7 +12296,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -12303,7 +12306,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
@@ -12325,27 +12328,27 @@
       <c r="AA30" s="9"/>
       <c r="AB30" s="10"/>
       <c r="AI30" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AJ30" s="25" t="str">
         <f aca="false">IF($I$24&lt;&gt;"суперсрочный","imAu/ENIG (иммерс. золото)","")</f>
-        <v>imAu/ENIG (иммерс. золото)</v>
+        <v/>
       </c>
       <c r="AK30" s="1" t="str">
         <f aca="false">IF($I$24&lt;&gt;"суперсрочный","imAg(иммерс. серебро)","")</f>
-        <v>imAg(иммерс. серебро)</v>
+        <v/>
       </c>
       <c r="AL30" s="1" t="str">
         <f aca="false">IF($I$24&lt;&gt;"суперсрочный","Immersion Tin(иммерс. олово)","")</f>
-        <v>Immersion Tin(иммерс. олово)</v>
+        <v/>
       </c>
       <c r="AM30" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -12355,12 +12358,12 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J31" s="26"/>
       <c r="K31" s="26"/>
       <c r="L31" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
@@ -12383,16 +12386,16 @@
         <v>3</v>
       </c>
       <c r="AI31" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ31" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AK31" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AL31" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AR31" s="25" t="str">
         <f aca="false">IF(OR(Лист1!$L$32="зеленого(типового)цвета",Лист1!$L$32="зеленого цвета(пленочная)"),"","зеленого(типового)цвета")</f>
@@ -12400,28 +12403,28 @@
       </c>
       <c r="AS31" s="25" t="str">
         <f aca="false">IF($I$24&lt;&gt;"суперсрочный","супербелого цвета","")</f>
-        <v>супербелого цвета</v>
+        <v/>
       </c>
       <c r="AT31" s="25" t="str">
         <f aca="false">IF($I$24&lt;&gt;"суперсрочный","синего цвета","")</f>
-        <v>синего цвета</v>
+        <v/>
       </c>
       <c r="AU31" s="25" t="str">
         <f aca="false">IF($I$24&lt;&gt;"суперсрочный","красного цвета","")</f>
-        <v>красного цвета</v>
+        <v/>
       </c>
       <c r="AV31" s="25" t="str">
         <f aca="false">IF($I$24&lt;&gt;"суперсрочный","черного цвета","")</f>
-        <v>черного цвета</v>
+        <v/>
       </c>
       <c r="AW31" s="25" t="str">
         <f aca="false">IF($I$24&lt;&gt;"суперсрочный","черного матового цвета","")</f>
-        <v>черного матового цвета</v>
+        <v/>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -12431,12 +12434,12 @@
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
@@ -12459,16 +12462,16 @@
         <v>3</v>
       </c>
       <c r="AI32" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ32" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK32" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AL32" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS32" s="1" t="str">
         <f aca="false">IF(OR(Лист1!$L$31="Зеленого цвета(пленочная)",Лист1!$L$31="зеленого(типового)цвета"),"","зеленого цвета")</f>
@@ -12476,15 +12479,15 @@
       </c>
       <c r="AT32" s="25" t="str">
         <f aca="false">IF($I$24="суперсрочный","","синего цвета")</f>
-        <v>синего цвета</v>
+        <v/>
       </c>
       <c r="AU32" s="25" t="str">
         <f aca="false">IF($I$24="Суперсрочный","","красного цвета")</f>
-        <v>красного цвета</v>
+        <v/>
       </c>
       <c r="AV32" s="25" t="str">
         <f aca="false">IF($I$24="Суперсрочный","","черного цвета")</f>
-        <v>черного цвета</v>
+        <v/>
       </c>
       <c r="AW32" s="25" t="str">
         <f aca="false">IF(Лист1!$L$31="Супербелого цвета","","белого(типового)цвета")</f>
@@ -12493,7 +12496,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -12503,7 +12506,7 @@
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J33" s="27"/>
       <c r="K33" s="27"/>
@@ -12525,21 +12528,21 @@
       <c r="AA33" s="9"/>
       <c r="AB33" s="10"/>
       <c r="AI33" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ33" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK33" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AL33" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -12574,12 +12577,12 @@
         <v>35</v>
       </c>
       <c r="AJ34" s="22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -12613,7 +12616,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -12623,7 +12626,7 @@
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
@@ -12645,15 +12648,15 @@
       <c r="AA36" s="9"/>
       <c r="AB36" s="10"/>
       <c r="AI36" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ36" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -12663,7 +12666,7 @@
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J37" s="28"/>
       <c r="K37" s="28"/>
@@ -12685,18 +12688,18 @@
       <c r="AA37" s="9"/>
       <c r="AB37" s="10"/>
       <c r="AI37" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ37" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK37" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
@@ -12706,7 +12709,7 @@
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J38" s="28"/>
       <c r="K38" s="28"/>
@@ -12728,15 +12731,15 @@
       <c r="AA38" s="9"/>
       <c r="AB38" s="10"/>
       <c r="AI38" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ38" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -12746,7 +12749,7 @@
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J39" s="28"/>
       <c r="K39" s="28"/>
@@ -12768,15 +12771,15 @@
       <c r="AA39" s="9"/>
       <c r="AB39" s="10"/>
       <c r="AI39" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ39" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -12840,25 +12843,25 @@
       <c r="AA41" s="31"/>
       <c r="AB41" s="31"/>
       <c r="AI41" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ41" s="32"/>
       <c r="AK41" s="32"/>
       <c r="AL41" s="32"/>
       <c r="AN41" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO41" s="33"/>
       <c r="AP41" s="33"/>
       <c r="AQ41" s="33"/>
       <c r="AS41" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AT41" s="33"/>
       <c r="AU41" s="33"/>
       <c r="AV41" s="33"/>
       <c r="AX41" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AY41" s="33"/>
       <c r="AZ41" s="33"/>
@@ -13205,7 +13208,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -13265,23 +13268,23 @@
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E49" s="35"/>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J49" s="35"/>
       <c r="K49" s="35"/>
       <c r="L49" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M49" s="35"/>
       <c r="N49" s="36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O49" s="36"/>
       <c r="P49" s="36"/>
@@ -13328,12 +13331,12 @@
     </row>
     <row r="50" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A50" s="37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B50" s="37"/>
       <c r="C50" s="37"/>
       <c r="D50" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -13390,12 +13393,12 @@
     </row>
     <row r="51" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A51" s="37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B51" s="37"/>
       <c r="C51" s="37"/>
       <c r="D51" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E51" s="40"/>
       <c r="F51" s="40"/>
@@ -13407,11 +13410,11 @@
       <c r="L51" s="42"/>
       <c r="M51" s="42"/>
       <c r="N51" s="43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O51" s="25"/>
       <c r="P51" s="43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q51" s="25"/>
       <c r="R51" s="42"/>
@@ -13453,12 +13456,12 @@
     </row>
     <row r="52" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A52" s="46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B52" s="46"/>
       <c r="C52" s="46"/>
       <c r="D52" s="47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E52" s="47"/>
       <c r="F52" s="47"/>
@@ -13512,12 +13515,12 @@
     </row>
     <row r="53" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A53" s="48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B53" s="48"/>
       <c r="C53" s="48"/>
       <c r="D53" s="49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E53" s="49"/>
       <c r="F53" s="49"/>
@@ -13632,7 +13635,7 @@
     </row>
     <row r="55" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A55" s="48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
@@ -13729,7 +13732,7 @@
     </row>
     <row r="57" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A57" s="48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B57" s="48"/>
       <c r="C57" s="48"/>
@@ -13797,12 +13800,12 @@
     </row>
     <row r="59" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A59" s="48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B59" s="48"/>
       <c r="C59" s="48"/>
       <c r="D59" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E59" s="53"/>
       <c r="F59" s="53"/>
@@ -13867,12 +13870,12 @@
     </row>
     <row r="61" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A61" s="48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B61" s="48"/>
       <c r="C61" s="48"/>
       <c r="D61" s="53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E61" s="53"/>
       <c r="F61" s="53"/>
@@ -13937,12 +13940,12 @@
     </row>
     <row r="63" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A63" s="48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B63" s="48"/>
       <c r="C63" s="48"/>
       <c r="D63" s="53" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E63" s="53"/>
       <c r="F63" s="53"/>
@@ -14007,12 +14010,12 @@
     </row>
     <row r="65" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A65" s="48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B65" s="48"/>
       <c r="C65" s="48"/>
       <c r="D65" s="53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E65" s="53"/>
       <c r="F65" s="53"/>
@@ -14077,7 +14080,7 @@
     </row>
     <row r="67" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A67" s="48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B67" s="48"/>
       <c r="C67" s="48"/>
@@ -14145,7 +14148,7 @@
     </row>
     <row r="69" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A69" s="48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B69" s="48"/>
       <c r="C69" s="48"/>
@@ -14210,7 +14213,7 @@
     </row>
     <row r="71" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A71" s="48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B71" s="48"/>
       <c r="C71" s="48"/>
@@ -14272,7 +14275,7 @@
     </row>
     <row r="73" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A73" s="48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B73" s="48"/>
       <c r="C73" s="48"/>
@@ -14334,7 +14337,7 @@
     </row>
     <row r="75" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A75" s="48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B75" s="48"/>
       <c r="C75" s="48"/>
@@ -14396,7 +14399,7 @@
     </row>
     <row r="77" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A77" s="48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B77" s="48"/>
       <c r="C77" s="48"/>
@@ -14458,12 +14461,12 @@
     </row>
     <row r="79" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A79" s="48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B79" s="48"/>
       <c r="C79" s="48"/>
       <c r="D79" s="49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E79" s="49"/>
       <c r="F79" s="49"/>
@@ -14495,12 +14498,12 @@
     </row>
     <row r="80" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A80" s="61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B80" s="61"/>
       <c r="C80" s="61"/>
       <c r="D80" s="47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E80" s="47"/>
       <c r="F80" s="47"/>
@@ -14529,12 +14532,12 @@
     </row>
     <row r="81" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A81" s="37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B81" s="37"/>
       <c r="C81" s="37"/>
       <c r="D81" s="40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E81" s="40"/>
       <c r="F81" s="40"/>
@@ -14563,12 +14566,12 @@
     </row>
     <row r="82" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A82" s="64" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B82" s="64"/>
       <c r="C82" s="64"/>
       <c r="D82" s="65" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E82" s="65"/>
       <c r="F82" s="65"/>
@@ -14627,7 +14630,7 @@
     </row>
     <row r="84" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A84" s="64" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B84" s="64"/>
       <c r="C84" s="64"/>
@@ -14689,7 +14692,7 @@
     </row>
     <row r="86" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A86" s="37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B86" s="37"/>
       <c r="C86" s="37"/>
@@ -14751,7 +14754,7 @@
     </row>
     <row r="88" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A88" s="37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B88" s="37"/>
       <c r="C88" s="37"/>
@@ -14813,7 +14816,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A90" s="68" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B90" s="69"/>
       <c r="C90" s="69"/>
@@ -14823,7 +14826,7 @@
       <c r="G90" s="69"/>
       <c r="H90" s="70"/>
       <c r="I90" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J90" s="17"/>
       <c r="K90" s="17"/>
@@ -14845,18 +14848,18 @@
       <c r="AA90" s="9"/>
       <c r="AB90" s="10"/>
       <c r="AI90" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ90" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK90" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A91" s="68" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B91" s="69"/>
       <c r="C91" s="69"/>
@@ -14866,7 +14869,7 @@
       <c r="G91" s="69"/>
       <c r="H91" s="70"/>
       <c r="I91" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J91" s="17"/>
       <c r="K91" s="17"/>
@@ -14888,21 +14891,21 @@
       <c r="AA91" s="9"/>
       <c r="AB91" s="10"/>
       <c r="AI91" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AJ91" s="1" t="str">
         <f aca="false">IF(Лист1!$L$31&lt;&gt;"зеленого цвета(пленочная)","закрыты маской","")</f>
         <v>закрыты маской</v>
       </c>
       <c r="AK91" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AL91" s="71"/>
       <c r="AM91" s="71"/>
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A92" s="68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B92" s="69"/>
       <c r="C92" s="69"/>
@@ -14912,22 +14915,22 @@
       <c r="G92" s="69"/>
       <c r="H92" s="70"/>
       <c r="I92" s="72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J92" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K92" s="74" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L92" s="73" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M92" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="N92" s="75" t="s">
         <v>126</v>
-      </c>
-      <c r="N92" s="75" t="s">
-        <v>125</v>
       </c>
       <c r="O92" s="75"/>
       <c r="P92" s="9"/>
@@ -14944,10 +14947,10 @@
       <c r="AA92" s="9"/>
       <c r="AB92" s="10"/>
       <c r="AI92" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AJ92" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -14982,7 +14985,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -15014,7 +15017,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A95" s="76" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B95" s="77"/>
       <c r="C95" s="77"/>
@@ -15024,7 +15027,7 @@
       <c r="G95" s="77"/>
       <c r="H95" s="78"/>
       <c r="I95" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J95" s="17"/>
       <c r="K95" s="17"/>
@@ -15033,7 +15036,7 @@
       <c r="N95" s="17"/>
       <c r="O95" s="17"/>
       <c r="P95" s="79" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q95" s="79"/>
       <c r="R95" s="79"/>
@@ -15048,21 +15051,21 @@
       <c r="AA95" s="79"/>
       <c r="AB95" s="79"/>
       <c r="AI95" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ95" s="80" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK95" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL95" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A96" s="68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B96" s="69"/>
       <c r="C96" s="69"/>
@@ -15072,7 +15075,7 @@
       <c r="G96" s="69"/>
       <c r="H96" s="70"/>
       <c r="I96" s="81" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J96" s="81"/>
       <c r="K96" s="81"/>
@@ -15096,7 +15099,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A97" s="68" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B97" s="69"/>
       <c r="C97" s="69"/>
@@ -15106,7 +15109,7 @@
       <c r="G97" s="69"/>
       <c r="H97" s="70"/>
       <c r="I97" s="81" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J97" s="81"/>
       <c r="K97" s="81"/>
@@ -15130,7 +15133,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A98" s="68" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B98" s="69"/>
       <c r="C98" s="69"/>
@@ -15164,7 +15167,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A99" s="68" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B99" s="69"/>
       <c r="C99" s="69"/>
@@ -15198,7 +15201,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A100" s="68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B100" s="69"/>
       <c r="C100" s="69"/>
@@ -15232,7 +15235,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A101" s="68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B101" s="69"/>
       <c r="C101" s="69"/>
@@ -15266,7 +15269,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A102" s="68" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B102" s="69"/>
       <c r="C102" s="69"/>
@@ -15276,14 +15279,14 @@
       <c r="G102" s="69"/>
       <c r="H102" s="70"/>
       <c r="I102" s="68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J102" s="68"/>
       <c r="K102" s="82" t="n">
         <v>10</v>
       </c>
       <c r="L102" s="69" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M102" s="69"/>
       <c r="N102" s="82" t="n">
@@ -15306,7 +15309,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A103" s="68" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B103" s="69"/>
       <c r="C103" s="69"/>
@@ -15316,14 +15319,14 @@
       <c r="G103" s="69"/>
       <c r="H103" s="70"/>
       <c r="I103" s="68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J103" s="68"/>
       <c r="K103" s="82" t="n">
         <v>10</v>
       </c>
       <c r="L103" s="69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M103" s="69"/>
       <c r="N103" s="82" t="n">
@@ -15346,7 +15349,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A104" s="68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B104" s="69"/>
       <c r="C104" s="69"/>
@@ -15356,7 +15359,7 @@
       <c r="G104" s="69"/>
       <c r="H104" s="70"/>
       <c r="I104" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J104" s="17"/>
       <c r="K104" s="17"/>
@@ -15378,15 +15381,15 @@
       <c r="AA104" s="79"/>
       <c r="AB104" s="79"/>
       <c r="AI104" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AJ104" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B105" s="83"/>
       <c r="C105" s="83"/>
@@ -15396,7 +15399,7 @@
       <c r="G105" s="83"/>
       <c r="H105" s="7"/>
       <c r="I105" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J105" s="17"/>
       <c r="K105" s="17"/>
@@ -15418,18 +15421,18 @@
       <c r="AA105" s="9"/>
       <c r="AB105" s="10"/>
       <c r="AI105" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AJ105" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK105" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A106" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
@@ -15461,7 +15464,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A107" s="76" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B107" s="77"/>
       <c r="C107" s="77"/>
@@ -15491,15 +15494,15 @@
       <c r="AA107" s="9"/>
       <c r="AB107" s="10"/>
       <c r="AI107" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ107" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="AJ107" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B108" s="83"/>
       <c r="C108" s="83"/>
@@ -15509,7 +15512,7 @@
       <c r="G108" s="83"/>
       <c r="H108" s="7"/>
       <c r="I108" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J108" s="17"/>
       <c r="K108" s="17"/>
@@ -15531,15 +15534,15 @@
       <c r="AA108" s="9"/>
       <c r="AB108" s="10"/>
       <c r="AI108" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ108" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="AJ108" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A109" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
@@ -15569,15 +15572,15 @@
       <c r="AA109" s="15"/>
       <c r="AB109" s="15"/>
       <c r="AI109" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ109" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A110" s="76" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B110" s="77"/>
       <c r="C110" s="77"/>
@@ -15587,7 +15590,7 @@
       <c r="G110" s="77"/>
       <c r="H110" s="78"/>
       <c r="I110" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J110" s="17"/>
       <c r="K110" s="17"/>
@@ -15609,19 +15612,19 @@
       <c r="AA110" s="9"/>
       <c r="AB110" s="10"/>
       <c r="AI110" s="25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ110" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AK110" s="25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL110" s="25"/>
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A111" s="68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B111" s="69"/>
       <c r="C111" s="69"/>
@@ -15651,15 +15654,15 @@
       <c r="AA111" s="9"/>
       <c r="AB111" s="10"/>
       <c r="AI111" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AJ111" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A112" s="68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B112" s="69"/>
       <c r="C112" s="69"/>
@@ -15669,7 +15672,7 @@
       <c r="G112" s="69"/>
       <c r="H112" s="70"/>
       <c r="I112" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J112" s="17"/>
       <c r="K112" s="17"/>
@@ -15691,15 +15694,15 @@
       <c r="AA112" s="9"/>
       <c r="AB112" s="10"/>
       <c r="AI112" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ112" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="AJ112" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A113" s="68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B113" s="69"/>
       <c r="C113" s="69"/>
@@ -15729,15 +15732,15 @@
       <c r="AA113" s="9"/>
       <c r="AB113" s="10"/>
       <c r="AI113" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ113" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="AJ113" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A114" s="68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B114" s="69"/>
       <c r="C114" s="69"/>
@@ -15767,15 +15770,15 @@
       <c r="AA114" s="9"/>
       <c r="AB114" s="10"/>
       <c r="AI114" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ114" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="AJ114" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A115" s="68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B115" s="69"/>
       <c r="C115" s="69"/>
@@ -15785,7 +15788,7 @@
       <c r="G115" s="69"/>
       <c r="H115" s="70"/>
       <c r="I115" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J115" s="17"/>
       <c r="K115" s="17"/>
@@ -15807,16 +15810,16 @@
       <c r="AA115" s="9"/>
       <c r="AB115" s="10"/>
       <c r="AI115" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AJ115" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BE115" s="14"/>
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A116" s="68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B116" s="69"/>
       <c r="C116" s="69"/>
@@ -15826,7 +15829,7 @@
       <c r="G116" s="69"/>
       <c r="H116" s="70"/>
       <c r="I116" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J116" s="17"/>
       <c r="K116" s="17"/>
@@ -15848,15 +15851,15 @@
       <c r="AA116" s="9"/>
       <c r="AB116" s="10"/>
       <c r="AI116" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AJ116" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A117" s="68" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B117" s="69"/>
       <c r="C117" s="69"/>
@@ -15866,7 +15869,7 @@
       <c r="G117" s="69"/>
       <c r="H117" s="70"/>
       <c r="I117" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J117" s="17"/>
       <c r="K117" s="17"/>
@@ -15888,20 +15891,20 @@
       <c r="AA117" s="9"/>
       <c r="AB117" s="10"/>
       <c r="AI117" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ117" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AK117" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL117" s="71"/>
       <c r="AM117" s="71"/>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B118" s="83"/>
       <c r="C118" s="83"/>
@@ -15931,15 +15934,15 @@
       <c r="AA118" s="9"/>
       <c r="AB118" s="10"/>
       <c r="AI118" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ118" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="AJ118" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
@@ -15971,32 +15974,32 @@
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A120" s="84" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B120" s="84"/>
       <c r="C120" s="85" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D120" s="85" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E120" s="85" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F120" s="85" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G120" s="85"/>
       <c r="H120" s="85"/>
       <c r="I120" s="85"/>
       <c r="J120" s="86" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K120" s="86"/>
       <c r="L120" s="86"/>
       <c r="M120" s="86"/>
       <c r="N120" s="84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O120" s="84"/>
       <c r="P120" s="84"/>
@@ -16006,7 +16009,7 @@
       <c r="T120" s="84"/>
       <c r="U120" s="84"/>
       <c r="V120" s="84" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="W120" s="84"/>
       <c r="X120" s="84"/>
@@ -16017,7 +16020,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A121" s="68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B121" s="68"/>
       <c r="C121" s="9"/>
@@ -16077,16 +16080,16 @@
       <c r="AA122" s="88"/>
       <c r="AB122" s="88"/>
       <c r="AI122" s="92" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AJ122" s="68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AK122" s="68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL122" s="68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN122" s="93"/>
       <c r="AP122" s="94"/>
@@ -16123,7 +16126,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A124" s="68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B124" s="68"/>
       <c r="C124" s="9"/>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A127" s="68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B127" s="68"/>
       <c r="C127" s="9"/>
@@ -16308,7 +16311,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A130" s="68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B130" s="68"/>
       <c r="C130" s="9"/>
@@ -16400,7 +16403,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B133" s="15"/>
       <c r="C133" s="15"/>
@@ -16432,16 +16435,16 @@
     </row>
     <row r="134" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A134" s="98" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B134" s="98"/>
       <c r="C134" s="99" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D134" s="99"/>
       <c r="E134" s="99"/>
       <c r="F134" s="100" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G134" s="100"/>
       <c r="H134" s="100"/>
@@ -16532,7 +16535,7 @@
       </c>
       <c r="B137" s="103"/>
       <c r="C137" s="104" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D137" s="104"/>
       <c r="E137" s="104"/>
@@ -16682,7 +16685,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B142" s="15"/>
       <c r="C142" s="15"/>
@@ -16714,16 +16717,16 @@
     </row>
     <row r="143" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A143" s="108" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B143" s="108"/>
       <c r="C143" s="108"/>
       <c r="D143" s="109" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E143" s="109"/>
       <c r="F143" s="110" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G143" s="110"/>
       <c r="H143" s="110"/>
@@ -16810,12 +16813,12 @@
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A146" s="112" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B146" s="112"/>
       <c r="C146" s="112"/>
       <c r="D146" s="113" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E146" s="113"/>
       <c r="F146" s="107"/>
@@ -16842,10 +16845,10 @@
       <c r="AA146" s="114"/>
       <c r="AB146" s="114"/>
       <c r="AI146" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AJ146" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
@@ -17000,7 +17003,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="115" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B152" s="115"/>
       <c r="C152" s="115"/>
@@ -17030,15 +17033,15 @@
       <c r="AA152" s="115"/>
       <c r="AB152" s="115"/>
       <c r="AI152" s="116" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AJ152" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="66" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A153" s="117" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B153" s="117"/>
       <c r="C153" s="117"/>
@@ -17048,7 +17051,7 @@
       <c r="G153" s="117"/>
       <c r="H153" s="117"/>
       <c r="I153" s="118" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J153" s="118"/>
       <c r="K153" s="118"/>
@@ -17072,25 +17075,25 @@
     </row>
     <row r="154" s="125" customFormat="true" ht="72" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A154" s="119" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B154" s="120" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C154" s="120"/>
       <c r="D154" s="121" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E154" s="121" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F154" s="122" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G154" s="122"/>
       <c r="H154" s="122"/>
       <c r="I154" s="123" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J154" s="123"/>
       <c r="K154" s="123"/>
@@ -17113,10 +17116,10 @@
       <c r="AB154" s="123"/>
       <c r="AC154" s="124"/>
       <c r="AI154" s="125" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AJ154" s="125" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
@@ -17149,13 +17152,13 @@
       <c r="AA155" s="128"/>
       <c r="AB155" s="128"/>
       <c r="AI155" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AJ155" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK155" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
@@ -20103,7 +20106,7 @@
   </sheetPr>
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -20117,22 +20120,22 @@
         <v>42156</v>
       </c>
       <c r="B1" s="134" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="132" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="132" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="132" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20140,27 +20143,27 @@
         <v>42401</v>
       </c>
       <c r="B5" s="134" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="132" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="132" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="132" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="132" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20168,42 +20171,42 @@
         <v>43070</v>
       </c>
       <c r="B10" s="134" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="132" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="132" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="132" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="132" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="132" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="132" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="132" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20211,7 +20214,7 @@
         <v>43191</v>
       </c>
       <c r="B18" s="134" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20219,12 +20222,12 @@
         <v>43739</v>
       </c>
       <c r="B19" s="134" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="132" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20232,7 +20235,7 @@
         <v>43739</v>
       </c>
       <c r="B21" s="134" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20240,12 +20243,12 @@
         <v>47392</v>
       </c>
       <c r="B22" s="134" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="132" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20253,7 +20256,7 @@
         <v>43952</v>
       </c>
       <c r="B24" s="134" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20261,7 +20264,7 @@
         <v>43983</v>
       </c>
       <c r="B25" s="134" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20269,7 +20272,7 @@
         <v>44013</v>
       </c>
       <c r="B26" s="134" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20277,7 +20280,7 @@
         <v>44896</v>
       </c>
       <c r="B27" s="134" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20285,7 +20288,7 @@
         <v>44896</v>
       </c>
       <c r="B28" s="134" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20293,7 +20296,7 @@
         <v>44896</v>
       </c>
       <c r="B29" s="134" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20301,7 +20304,7 @@
         <v>44896</v>
       </c>
       <c r="B30" s="134" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20309,7 +20312,7 @@
         <v>44896</v>
       </c>
       <c r="B31" s="134" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20317,23 +20320,23 @@
         <v>44927</v>
       </c>
       <c r="B32" s="134" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="132" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="132" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="132" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20341,7 +20344,7 @@
         <v>44958</v>
       </c>
       <c r="B37" s="134" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20349,22 +20352,22 @@
         <v>45017</v>
       </c>
       <c r="B38" s="134" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="132" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="132" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="132" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20372,22 +20375,22 @@
         <v>45231</v>
       </c>
       <c r="B42" s="134" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="132" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="132" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="132" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20395,12 +20398,12 @@
         <v>45474</v>
       </c>
       <c r="B46" s="134" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="132" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20408,17 +20411,17 @@
         <v>45566</v>
       </c>
       <c r="B48" s="134" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="132" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="132" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20426,12 +20429,12 @@
         <v>45627</v>
       </c>
       <c r="B51" s="134" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="132" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -20452,7 +20455,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -20475,7 +20478,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -20498,7 +20501,7 @@
   </sheetPr>
   <dimension ref="B1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -20508,19 +20511,19 @@
     <row r="2" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="135" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="135" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="135" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -20546,7 +20549,7 @@
   </sheetPr>
   <dimension ref="A1:AH367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T136" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T136" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B159" activeCellId="0" sqref="B159"/>
     </sheetView>
   </sheetViews>
@@ -20679,7 +20682,7 @@
     </row>
     <row r="3" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="143" t="n">
         <v>0.2</v>
@@ -23716,100 +23719,100 @@
     </row>
     <row r="84" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="V84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="X84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AC84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG84" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25829,100 +25832,100 @@
     </row>
     <row r="136" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="V136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="X136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AC136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG136" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26601,100 +26604,100 @@
     </row>
     <row r="154" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="V154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="X154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AC154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG154" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26837,28 +26840,28 @@
     </row>
     <row r="162" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q162" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R162" s="161"/>
       <c r="S162" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T162" s="161"/>
       <c r="U162" s="161"/>
       <c r="V162" s="161"/>
       <c r="W162" s="161"/>
       <c r="X162" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y162" s="161"/>
       <c r="Z162" s="161"/>
       <c r="AA162" s="161"/>
       <c r="AB162" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC162" s="161"/>
       <c r="AD162" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE162" s="163"/>
       <c r="AF162" s="153"/>
@@ -27011,28 +27014,28 @@
     </row>
     <row r="170" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q170" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R170" s="161"/>
       <c r="S170" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T170" s="161"/>
       <c r="U170" s="161"/>
       <c r="V170" s="161"/>
       <c r="W170" s="161"/>
       <c r="X170" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y170" s="161"/>
       <c r="Z170" s="161"/>
       <c r="AA170" s="161"/>
       <c r="AB170" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC170" s="161"/>
       <c r="AD170" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE170" s="163"/>
       <c r="AF170" s="153"/>
@@ -27071,28 +27074,28 @@
     </row>
     <row r="172" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q172" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R172" s="161"/>
       <c r="S172" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T172" s="161"/>
       <c r="U172" s="161"/>
       <c r="V172" s="161"/>
       <c r="W172" s="161"/>
       <c r="X172" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y172" s="161"/>
       <c r="Z172" s="161"/>
       <c r="AA172" s="161"/>
       <c r="AB172" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC172" s="161"/>
       <c r="AD172" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE172" s="163"/>
       <c r="AF172" s="153"/>
@@ -27245,28 +27248,28 @@
     </row>
     <row r="180" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q180" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R180" s="161"/>
       <c r="S180" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T180" s="161"/>
       <c r="U180" s="161"/>
       <c r="V180" s="161"/>
       <c r="W180" s="161"/>
       <c r="X180" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y180" s="161"/>
       <c r="Z180" s="161"/>
       <c r="AA180" s="161"/>
       <c r="AB180" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC180" s="161"/>
       <c r="AD180" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE180" s="163"/>
       <c r="AF180" s="153"/>
@@ -27362,21 +27365,21 @@
     </row>
     <row r="188" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S188" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T188" s="153"/>
       <c r="U188" s="153"/>
       <c r="X188" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y188" s="161"/>
       <c r="Z188" s="161"/>
       <c r="AA188" s="161"/>
       <c r="AB188" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD188" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE188" s="163"/>
       <c r="AF188" s="153"/>
@@ -27425,7 +27428,7 @@
       <c r="Z191" s="166"/>
       <c r="AA191" s="166"/>
       <c r="AB191" s="166" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AD191" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","препрег 0,308мм","препрег 0,308мм"),"препрег 0,315мм")</f>
@@ -27493,21 +27496,21 @@
     </row>
     <row r="196" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S196" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T196" s="153"/>
       <c r="U196" s="153"/>
       <c r="X196" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y196" s="161"/>
       <c r="Z196" s="161"/>
       <c r="AA196" s="161"/>
       <c r="AB196" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD196" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE196" s="163"/>
       <c r="AF196" s="153"/>
@@ -27541,21 +27544,21 @@
     </row>
     <row r="198" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S198" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T198" s="153"/>
       <c r="U198" s="153"/>
       <c r="X198" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y198" s="161"/>
       <c r="Z198" s="161"/>
       <c r="AA198" s="161"/>
       <c r="AB198" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD198" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE198" s="163"/>
       <c r="AF198" s="153"/>
@@ -27632,7 +27635,7 @@
       <c r="Z203" s="166"/>
       <c r="AA203" s="166"/>
       <c r="AB203" s="166" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AD203" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","препрег 0,308мм","препрег 0,308мм"),"препрег 0,315мм")</f>
@@ -27672,21 +27675,21 @@
     </row>
     <row r="206" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S206" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T206" s="153"/>
       <c r="U206" s="153"/>
       <c r="X206" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y206" s="161"/>
       <c r="Z206" s="161"/>
       <c r="AA206" s="161"/>
       <c r="AB206" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD206" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE206" s="163"/>
       <c r="AF206" s="153"/>
@@ -27782,26 +27785,26 @@
     </row>
     <row r="214" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S214" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V214" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W214" s="161"/>
       <c r="X214" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y214" s="161"/>
       <c r="Z214" s="161"/>
       <c r="AA214" s="161"/>
       <c r="AB214" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC214" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD214" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE214" s="163"/>
       <c r="AF214" s="153"/>
@@ -27855,10 +27858,10 @@
       <c r="Z217" s="166"/>
       <c r="AA217" s="166"/>
       <c r="AB217" s="166" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AC217" s="166" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AD217" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","препрег 0,115мм","препрег 0,115мм"),"препрег 0,125мм")</f>
@@ -27900,26 +27903,26 @@
     </row>
     <row r="220" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S220" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V220" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W220" s="161"/>
       <c r="X220" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y220" s="161"/>
       <c r="Z220" s="161"/>
       <c r="AA220" s="161"/>
       <c r="AB220" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC220" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD220" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE220" s="163"/>
       <c r="AF220" s="153"/>
@@ -27960,26 +27963,26 @@
     </row>
     <row r="222" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S222" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V222" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W222" s="161"/>
       <c r="X222" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y222" s="161"/>
       <c r="Z222" s="161"/>
       <c r="AA222" s="161"/>
       <c r="AB222" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC222" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD222" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE222" s="163"/>
       <c r="AF222" s="153"/>
@@ -27991,7 +27994,7 @@
         <v>препрег 0,23мм</v>
       </c>
       <c r="V223" s="166" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="W223" s="166"/>
       <c r="X223" s="166" t="str">
@@ -28002,10 +28005,10 @@
       <c r="Z223" s="166"/>
       <c r="AA223" s="166"/>
       <c r="AB223" s="166" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC223" s="166" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD223" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","препрег 0,115мм","препрег 0,115мм"),"препрег 0,125мм")</f>
@@ -28017,26 +28020,26 @@
     </row>
     <row r="224" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S224" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V224" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W224" s="161"/>
       <c r="X224" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y224" s="161"/>
       <c r="Z224" s="161"/>
       <c r="AA224" s="161"/>
       <c r="AB224" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC224" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD224" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE224" s="163"/>
       <c r="AF224" s="153"/>
@@ -28077,26 +28080,26 @@
     </row>
     <row r="226" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S226" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V226" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W226" s="161"/>
       <c r="X226" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y226" s="161"/>
       <c r="Z226" s="161"/>
       <c r="AA226" s="161"/>
       <c r="AB226" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC226" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD226" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE226" s="163"/>
       <c r="AF226" s="153"/>
@@ -28150,10 +28153,10 @@
       <c r="Z229" s="166"/>
       <c r="AA229" s="166"/>
       <c r="AB229" s="166" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AC229" s="166" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AD229" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","препрег 0,115мм","препрег 0,115мм"),"препрег 0,125мм")</f>
@@ -28195,26 +28198,26 @@
     </row>
     <row r="232" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S232" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V232" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W232" s="161"/>
       <c r="X232" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y232" s="161"/>
       <c r="Z232" s="161"/>
       <c r="AA232" s="161"/>
       <c r="AB232" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC232" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD232" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE232" s="163"/>
       <c r="AF232" s="153"/>
@@ -28300,23 +28303,23 @@
     </row>
     <row r="240" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V240" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W240" s="161"/>
       <c r="X240" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y240" s="161"/>
       <c r="Z240" s="161"/>
       <c r="AA240" s="161"/>
       <c r="AB240" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AC240" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD240" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE240" s="163"/>
       <c r="AF240" s="153"/>
@@ -28352,7 +28355,7 @@
     </row>
     <row r="243" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V243" s="166" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="W243" s="166"/>
       <c r="X243" s="166" t="str">
@@ -28363,10 +28366,10 @@
       <c r="Z243" s="166"/>
       <c r="AA243" s="166"/>
       <c r="AB243" s="166" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC243" s="166" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AD243" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","препрег 0,191мм","препрег 0,191мм"),"препрег 0,194мм")</f>
@@ -28406,23 +28409,23 @@
     </row>
     <row r="246" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V246" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W246" s="161"/>
       <c r="X246" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y246" s="161"/>
       <c r="Z246" s="161"/>
       <c r="AA246" s="161"/>
       <c r="AB246" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AC246" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD246" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE246" s="163"/>
       <c r="AF246" s="153"/>
@@ -28442,10 +28445,10 @@
       <c r="Z247" s="166"/>
       <c r="AA247" s="166"/>
       <c r="AB247" s="166" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AC247" s="166" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AD247" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","FR4 HiTg150 0,51мм","FR4 HiTg150 0,51мм"),"FR4 HiTg170 0,51мм")</f>
@@ -28457,23 +28460,23 @@
     </row>
     <row r="248" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V248" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W248" s="161"/>
       <c r="X248" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y248" s="161"/>
       <c r="Z248" s="161"/>
       <c r="AA248" s="161"/>
       <c r="AB248" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AC248" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD248" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE248" s="163"/>
       <c r="AF248" s="153"/>
@@ -28481,7 +28484,7 @@
     </row>
     <row r="249" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V249" s="166" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="W249" s="166"/>
       <c r="X249" s="166" t="str">
@@ -28492,10 +28495,10 @@
       <c r="Z249" s="166"/>
       <c r="AA249" s="166"/>
       <c r="AB249" s="166" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC249" s="166" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AD249" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","препрег 0,23мм","препрег 0,23мм"),"препрег 0,25мм")</f>
@@ -28507,23 +28510,23 @@
     </row>
     <row r="250" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V250" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W250" s="161"/>
       <c r="X250" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y250" s="161"/>
       <c r="Z250" s="161"/>
       <c r="AA250" s="161"/>
       <c r="AB250" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AC250" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD250" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE250" s="163"/>
       <c r="AF250" s="153"/>
@@ -28543,10 +28546,10 @@
       <c r="Z251" s="166"/>
       <c r="AA251" s="166"/>
       <c r="AB251" s="166" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AC251" s="166" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AD251" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","FR4 HiTg150 0,51мм","FR4 HiTg150 0,51мм"),"FR4 HiTg170 0,51мм")</f>
@@ -28558,23 +28561,23 @@
     </row>
     <row r="252" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V252" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W252" s="161"/>
       <c r="X252" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y252" s="161"/>
       <c r="Z252" s="161"/>
       <c r="AA252" s="161"/>
       <c r="AB252" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AC252" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD252" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE252" s="163"/>
       <c r="AF252" s="153"/>
@@ -28610,7 +28613,7 @@
     </row>
     <row r="255" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V255" s="166" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="W255" s="166"/>
       <c r="X255" s="166" t="str">
@@ -28621,10 +28624,10 @@
       <c r="Z255" s="166"/>
       <c r="AA255" s="166"/>
       <c r="AB255" s="166" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC255" s="166" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AD255" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","препрег 0,191мм","препрег 0,191мм"),"препрег 0,194мм")</f>
@@ -28664,23 +28667,23 @@
     </row>
     <row r="258" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V258" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W258" s="161"/>
       <c r="X258" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y258" s="161"/>
       <c r="Z258" s="161"/>
       <c r="AA258" s="161"/>
       <c r="AB258" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AC258" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD258" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE258" s="163"/>
       <c r="AF258" s="153"/>
@@ -28721,7 +28724,7 @@
         <v>8</v>
       </c>
       <c r="X263" s="160" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y263" s="160"/>
       <c r="Z263" s="160"/>
@@ -28729,7 +28732,7 @@
       <c r="AB263" s="160"/>
       <c r="AC263" s="160"/>
       <c r="AD263" s="160" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AE263" s="144"/>
       <c r="AF263" s="159"/>
@@ -28761,19 +28764,19 @@
     </row>
     <row r="266" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X266" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y266" s="161"/>
       <c r="Z266" s="161"/>
       <c r="AA266" s="161"/>
       <c r="AB266" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC266" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD266" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE266" s="163"/>
       <c r="AF266" s="153"/>
@@ -28812,10 +28815,10 @@
       <c r="Z269" s="166"/>
       <c r="AA269" s="166"/>
       <c r="AB269" s="166" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AC269" s="166" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AD269" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","препрег 0,115мм","препрег 0,115мм"),"препрег 0,125мм")</f>
@@ -28827,19 +28830,19 @@
     </row>
     <row r="270" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X270" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y270" s="161"/>
       <c r="Z270" s="161"/>
       <c r="AA270" s="161"/>
       <c r="AB270" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC270" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD270" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE270" s="163"/>
       <c r="AF270" s="153"/>
@@ -28854,10 +28857,10 @@
       <c r="Z271" s="166"/>
       <c r="AA271" s="166"/>
       <c r="AB271" s="166" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AC271" s="166" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AD271" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","FR4 HiTg150 0,3мм","FR4 HiTg150 0,3мм"),"FR4 HiTg170 0,3мм")</f>
@@ -28869,19 +28872,19 @@
     </row>
     <row r="272" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X272" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y272" s="161"/>
       <c r="Z272" s="161"/>
       <c r="AA272" s="161"/>
       <c r="AB272" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC272" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD272" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE272" s="163"/>
       <c r="AF272" s="153"/>
@@ -28896,10 +28899,10 @@
       <c r="Z273" s="166"/>
       <c r="AA273" s="166"/>
       <c r="AB273" s="166" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC273" s="166" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AD273" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","препрег 0,308мм","препрег 0,308мм"),"препрег 0,315мм")</f>
@@ -28911,19 +28914,19 @@
     </row>
     <row r="274" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X274" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y274" s="161"/>
       <c r="Z274" s="161"/>
       <c r="AA274" s="161"/>
       <c r="AB274" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC274" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD274" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE274" s="163"/>
       <c r="AF274" s="153"/>
@@ -28938,10 +28941,10 @@
       <c r="Z275" s="166"/>
       <c r="AA275" s="166"/>
       <c r="AB275" s="166" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AC275" s="166" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AD275" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","FR4 HiTg150 0,3мм","FR4 HiTg150 0,3мм"),"FR4 HiTg170 0,3мм")</f>
@@ -28953,19 +28956,19 @@
     </row>
     <row r="276" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X276" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y276" s="161"/>
       <c r="Z276" s="161"/>
       <c r="AA276" s="161"/>
       <c r="AB276" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC276" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD276" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE276" s="163"/>
       <c r="AF276" s="153"/>
@@ -28980,10 +28983,10 @@
       <c r="Z277" s="166"/>
       <c r="AA277" s="166"/>
       <c r="AB277" s="166" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC277" s="166" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AD277" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","препрег 0,308мм","препрег 0,308мм"),"препрег 0,315мм")</f>
@@ -28995,19 +28998,19 @@
     </row>
     <row r="278" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X278" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y278" s="161"/>
       <c r="Z278" s="161"/>
       <c r="AA278" s="161"/>
       <c r="AB278" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC278" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD278" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE278" s="163"/>
       <c r="AF278" s="153"/>
@@ -29022,10 +29025,10 @@
       <c r="Z279" s="166"/>
       <c r="AA279" s="166"/>
       <c r="AB279" s="166" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AC279" s="166" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AD279" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","FR4 HiTg150 0,3мм","FR4 HiTg150 0,3мм"),"FR4 HiTg170 0,3мм")</f>
@@ -29037,19 +29040,19 @@
     </row>
     <row r="280" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X280" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y280" s="161"/>
       <c r="Z280" s="161"/>
       <c r="AA280" s="161"/>
       <c r="AB280" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC280" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD280" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE280" s="163"/>
       <c r="AF280" s="153"/>
@@ -29064,10 +29067,10 @@
       <c r="Z281" s="166"/>
       <c r="AA281" s="166"/>
       <c r="AB281" s="166" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AC281" s="166" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AD281" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","препрег 0,115мм","препрег 0,115мм"),"препрег 0,125мм")</f>
@@ -29103,19 +29106,19 @@
     </row>
     <row r="284" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X284" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y284" s="161"/>
       <c r="Z284" s="161"/>
       <c r="AA284" s="161"/>
       <c r="AB284" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC284" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD284" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE284" s="163"/>
       <c r="AF284" s="153"/>
@@ -29149,14 +29152,14 @@
     <row r="288" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="289" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X289" s="160" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y289" s="159"/>
       <c r="Z289" s="159"/>
       <c r="AA289" s="159"/>
       <c r="AC289" s="160"/>
       <c r="AD289" s="160" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AE289" s="144"/>
       <c r="AF289" s="159"/>
@@ -29186,16 +29189,16 @@
     </row>
     <row r="292" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X292" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y292" s="153"/>
       <c r="Z292" s="153"/>
       <c r="AA292" s="153"/>
       <c r="AC292" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD292" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE292" s="163"/>
       <c r="AF292" s="153"/>
@@ -29232,7 +29235,7 @@
       <c r="Z295" s="155"/>
       <c r="AA295" s="155"/>
       <c r="AC295" s="166" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AD295" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","препрег 0,115мм","препрег 0,115мм"),"препрег 0,125мм")</f>
@@ -29244,16 +29247,16 @@
     </row>
     <row r="296" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X296" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y296" s="153"/>
       <c r="Z296" s="153"/>
       <c r="AA296" s="153"/>
       <c r="AC296" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD296" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE296" s="163"/>
       <c r="AF296" s="153"/>
@@ -29268,7 +29271,7 @@
       <c r="Z297" s="155"/>
       <c r="AA297" s="155"/>
       <c r="AC297" s="166" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AD297" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","FR4 HiTg150 0,3мм","FR4 HiTg150 0,3мм"),"FR4 HiTg170 0,3мм")</f>
@@ -29280,16 +29283,16 @@
     </row>
     <row r="298" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X298" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y298" s="153"/>
       <c r="Z298" s="153"/>
       <c r="AA298" s="153"/>
       <c r="AC298" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD298" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE298" s="163"/>
       <c r="AF298" s="153"/>
@@ -29304,7 +29307,7 @@
       <c r="Z299" s="155"/>
       <c r="AA299" s="155"/>
       <c r="AC299" s="166" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD299" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","препрег 0,23мм","препрег 0,23мм"),"препрег 0,25мм")</f>
@@ -29316,16 +29319,16 @@
     </row>
     <row r="300" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X300" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y300" s="153"/>
       <c r="Z300" s="153"/>
       <c r="AA300" s="153"/>
       <c r="AC300" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD300" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE300" s="163"/>
       <c r="AF300" s="153"/>
@@ -29340,7 +29343,7 @@
       <c r="Z301" s="155"/>
       <c r="AA301" s="155"/>
       <c r="AC301" s="166" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AD301" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","FR4 HiTg150 0,3мм","FR4 HiTg150 0,3мм"),"FR4 HiTg170 0,3мм")</f>
@@ -29352,16 +29355,16 @@
     </row>
     <row r="302" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X302" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y302" s="153"/>
       <c r="Z302" s="153"/>
       <c r="AA302" s="153"/>
       <c r="AC302" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD302" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE302" s="163"/>
       <c r="AF302" s="153"/>
@@ -29376,7 +29379,7 @@
       <c r="Z303" s="155"/>
       <c r="AA303" s="155"/>
       <c r="AC303" s="166" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD303" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","препрег 0,23мм","препрег 0,23мм"),"препрег 0,25мм")</f>
@@ -29388,16 +29391,16 @@
     </row>
     <row r="304" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X304" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y304" s="153"/>
       <c r="Z304" s="153"/>
       <c r="AA304" s="153"/>
       <c r="AC304" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD304" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE304" s="163"/>
       <c r="AF304" s="153"/>
@@ -29412,7 +29415,7 @@
       <c r="Z305" s="155"/>
       <c r="AA305" s="155"/>
       <c r="AC305" s="166" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AD305" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","FR4 HiTg150 0,3мм","FR4 HiTg150 0,3мм"),"FR4 HiTg170 0,3мм")</f>
@@ -29424,16 +29427,16 @@
     </row>
     <row r="306" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X306" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y306" s="153"/>
       <c r="Z306" s="153"/>
       <c r="AA306" s="153"/>
       <c r="AC306" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD306" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE306" s="163"/>
       <c r="AF306" s="153"/>
@@ -29448,7 +29451,7 @@
       <c r="Z307" s="155"/>
       <c r="AA307" s="155"/>
       <c r="AC307" s="166" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AD307" s="166" t="str">
         <f aca="false">IF(Лист1!$I$27&lt;&gt;"FR4 HiTg170", IF(Лист1!$I$27&lt;&gt;"FR4 Tg135  типовой","препрег 0,115мм","препрег 0,115мм"),"препрег 0,125мм")</f>
@@ -29482,16 +29485,16 @@
     </row>
     <row r="310" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X310" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y310" s="153"/>
       <c r="Z310" s="153"/>
       <c r="AA310" s="153"/>
       <c r="AC310" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD310" s="161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE310" s="163"/>
       <c r="AF310" s="153"/>
@@ -29526,7 +29529,7 @@
         <v>10</v>
       </c>
       <c r="AD315" s="160" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AE315" s="144"/>
       <c r="AF315" s="159"/>
@@ -29552,7 +29555,7 @@
     </row>
     <row r="318" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AD318" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE318" s="163"/>
       <c r="AF318" s="153"/>
@@ -29581,7 +29584,7 @@
     </row>
     <row r="322" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AD322" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE322" s="163"/>
       <c r="AF322" s="153"/>
@@ -29598,7 +29601,7 @@
     </row>
     <row r="324" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AD324" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE324" s="163"/>
       <c r="AF324" s="153"/>
@@ -29615,7 +29618,7 @@
     </row>
     <row r="326" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AD326" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE326" s="163"/>
       <c r="AF326" s="153"/>
@@ -29632,7 +29635,7 @@
     </row>
     <row r="328" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AD328" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE328" s="163"/>
       <c r="AF328" s="153"/>
@@ -29649,7 +29652,7 @@
     </row>
     <row r="330" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AD330" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE330" s="163"/>
       <c r="AF330" s="153"/>
@@ -29666,7 +29669,7 @@
     </row>
     <row r="332" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AD332" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE332" s="163"/>
       <c r="AF332" s="153"/>
@@ -29695,7 +29698,7 @@
     </row>
     <row r="336" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AD336" s="161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE336" s="163"/>
       <c r="AF336" s="153"/>
@@ -29931,7 +29934,7 @@
     </row>
     <row r="366" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="136" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AC366" s="138"/>
       <c r="AD366" s="138"/>
@@ -29963,7 +29966,7 @@
   </sheetPr>
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -29990,12 +29993,12 @@
         <v/>
       </c>
       <c r="N1" s="134" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="173" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="174" t="str">
         <f aca="true" t="array" ref="H2:H2">IF(ROW()-ROW(mater)+1&gt;ROWS(materIshod)-COUNTBLANK(materIshod),"",INDIRECT(ADDRESS(SMALL((IF(materIshod&lt;&gt;"",ROW(materIshod),ROW()+ROWS(materIshod))),ROW()-ROW(mater)+1),COLUMN(materIshod),4)))</f>
@@ -30016,11 +30019,11 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="173" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H3" s="174" t="str">
         <f aca="true" t="array" ref="H3:H3">IF(ROW()-ROW(mater)+1&gt;ROWS(materIshod)-COUNTBLANK(materIshod),"",INDIRECT(ADDRESS(SMALL((IF(materIshod&lt;&gt;"",ROW(materIshod),ROW()+ROWS(materIshod))),ROW()-ROW(mater)+1),COLUMN(materIshod),4)))</f>
-        <v>RA1000</v>
+        <v/>
       </c>
       <c r="J3" s="132" t="str">
         <f aca="false">IFERROR(SMALL(IF(ISBLANK($B$1:$B$34),"",$B$1:$B$34),ROW($B3)),"")</f>
@@ -30042,7 +30045,7 @@
       </c>
       <c r="H4" s="174" t="str">
         <f aca="true" t="array" ref="H4:H4">IF(ROW()-ROW(mater)+1&gt;ROWS(materIshod)-COUNTBLANK(materIshod),"",INDIRECT(ADDRESS(SMALL((IF(materIshod&lt;&gt;"",ROW(materIshod),ROW()+ROWS(materIshod))),ROW()-ROW(mater)+1),COLUMN(materIshod),4)))</f>
-        <v>AD250C</v>
+        <v/>
       </c>
       <c r="J4" s="132" t="str">
         <f aca="false">IFERROR(SMALL(IF(ISBLANK($B$1:$B$34),"",$B$1:$B$34),ROW($B5)),"")</f>
@@ -30060,11 +30063,11 @@
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="173" t="str">
         <f aca="false">IF(AND(Лист1!$AG$26&lt;20,Лист1!$I$24&lt;&gt;"суперсрочный"),"RA1000","")</f>
-        <v>RA1000</v>
+        <v/>
       </c>
       <c r="H5" s="174" t="str">
         <f aca="true" t="array" ref="H5:H5">IF(ROW()-ROW(mater)+1&gt;ROWS(materIshod)-COUNTBLANK(materIshod),"",INDIRECT(ADDRESS(SMALL((IF(materIshod&lt;&gt;"",ROW(materIshod),ROW()+ROWS(materIshod))),ROW()-ROW(mater)+1),COLUMN(materIshod),4)))</f>
-        <v>Гибридная плата (СВЧ+FR4)</v>
+        <v/>
       </c>
       <c r="J5" s="132" t="str">
         <f aca="false">IFERROR(SMALL(IF(ISBLANK($B$1:$B$34),"",$B$1:$B$34),ROW($B6)),"")</f>
@@ -30082,11 +30085,11 @@
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="173" t="str">
         <f aca="false">IF(AND(Лист1!$AG$26&lt;20,Лист1!$I$24&lt;&gt;"суперсрочный"),"AD250C","")</f>
-        <v>AD250C</v>
+        <v/>
       </c>
       <c r="H6" s="174" t="str">
         <f aca="true" t="array" ref="H6:H6">IF(ROW()-ROW(mater)+1&gt;ROWS(materIshod)-COUNTBLANK(materIshod),"",INDIRECT(ADDRESS(SMALL((IF(materIshod&lt;&gt;"",ROW(materIshod),ROW()+ROWS(materIshod))),ROW()-ROW(mater)+1),COLUMN(materIshod),4)))</f>
-        <v>WL-CT338</v>
+        <v/>
       </c>
       <c r="J6" s="132" t="str">
         <f aca="false">IFERROR(SMALL(IF(ISBLANK($B$1:$B$34),"",$B$1:$B$34),ROW($B4)),"")</f>
@@ -30104,11 +30107,11 @@
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="173" t="str">
         <f aca="false">IF(OR(Лист1!$AG$26&lt;=2,Лист1!$I$24="суперсрочный"),"","Гибридная плата (СВЧ+FR4)")</f>
-        <v>Гибридная плата (СВЧ+FR4)</v>
+        <v/>
       </c>
       <c r="H7" s="174" t="str">
         <f aca="true" t="array" ref="H7:H7">IF(ROW()-ROW(mater)+1&gt;ROWS(materIshod)-COUNTBLANK(materIshod),"",INDIRECT(ADDRESS(SMALL((IF(materIshod&lt;&gt;"",ROW(materIshod),ROW()+ROWS(materIshod))),ROW()-ROW(mater)+1),COLUMN(materIshod),4)))</f>
-        <v>WL-CT350 </v>
+        <v/>
       </c>
       <c r="J7" s="132" t="str">
         <f aca="false">IFERROR(SMALL(IF(ISBLANK($B$1:$B$34),"",$B$1:$B$34),ROW(#REF!)),"")</f>
@@ -30130,7 +30133,7 @@
       </c>
       <c r="H8" s="174" t="str">
         <f aca="true" t="array" ref="H8:H8">IF(ROW()-ROW(mater)+1&gt;ROWS(materIshod)-COUNTBLANK(materIshod),"",INDIRECT(ADDRESS(SMALL((IF(materIshod&lt;&gt;"",ROW(materIshod),ROW()+ROWS(materIshod))),ROW()-ROW(mater)+1),COLUMN(materIshod),4)))</f>
-        <v>гибкая печатная плата</v>
+        <v/>
       </c>
       <c r="J8" s="132" t="str">
         <f aca="false">IFERROR(SMALL(IF(ISBLANK($B$1:$B$34),"",$B$1:$B$34),ROW($B8)),"")</f>
@@ -30149,7 +30152,7 @@
       <c r="B9" s="173"/>
       <c r="H9" s="174" t="str">
         <f aca="true" t="array" ref="H9:H9">IF(ROW()-ROW(mater)+1&gt;ROWS(materIshod)-COUNTBLANK(materIshod),"",INDIRECT(ADDRESS(SMALL((IF(materIshod&lt;&gt;"",ROW(materIshod),ROW()+ROWS(materIshod))),ROW()-ROW(mater)+1),COLUMN(materIshod),4)))</f>
-        <v>гибко-жесткая печатная плата</v>
+        <v/>
       </c>
       <c r="J9" s="132" t="str">
         <f aca="false">IFERROR(SMALL(IF(ISBLANK($B$1:$B$34),"",$B$1:$B$34),ROW($B9)),"")</f>
@@ -30168,7 +30171,7 @@
       <c r="B10" s="173"/>
       <c r="H10" s="174" t="str">
         <f aca="true" t="array" ref="H10:H10">IF(ROW()-ROW(mater)+1&gt;ROWS(materIshod)-COUNTBLANK(materIshod),"",INDIRECT(ADDRESS(SMALL((IF(materIshod&lt;&gt;"",ROW(materIshod),ROW()+ROWS(materIshod))),ROW()-ROW(mater)+1),COLUMN(materIshod),4)))</f>
-        <v>highspeed FR4 серии TU-872 SLK (TUC)</v>
+        <v/>
       </c>
       <c r="J10" s="132" t="str">
         <f aca="false">IFERROR(SMALL(IF(ISBLANK($B$1:$B$34),"",$B$1:$B$34),ROW($B10)),"")</f>
@@ -30186,10 +30189,10 @@
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="173" t="str">
         <f aca="false">IF(Лист1!$I$24&lt;&gt;"суперсрочный","WL-CT338","")</f>
-        <v>WL-CT338</v>
+        <v/>
       </c>
       <c r="C11" s="134" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H11" s="174" t="str">
         <f aca="true" t="array" ref="H11:H11">IF(ROW()-ROW(mater)+1&gt;ROWS(materIshod)-COUNTBLANK(materIshod),"",INDIRECT(ADDRESS(SMALL((IF(materIshod&lt;&gt;"",ROW(materIshod),ROW()+ROWS(materIshod))),ROW()-ROW(mater)+1),COLUMN(materIshod),4)))</f>
@@ -30211,10 +30214,10 @@
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="173" t="str">
         <f aca="false">IF(Лист1!$I$24&lt;&gt;"суперсрочный","WL-CT350 ","")</f>
-        <v>WL-CT350 </v>
+        <v/>
       </c>
       <c r="C12" s="134" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H12" s="174" t="str">
         <f aca="true" t="array" ref="H12:H12">IF(ROW()-ROW(mater)+1&gt;ROWS(materIshod)-COUNTBLANK(materIshod),"",INDIRECT(ADDRESS(SMALL((IF(materIshod&lt;&gt;"",ROW(materIshod),ROW()+ROWS(materIshod))),ROW()-ROW(mater)+1),COLUMN(materIshod),4)))</f>
@@ -30228,7 +30231,7 @@
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="173" t="str">
         <f aca="false">IF(Лист1!$I$24&lt;&gt;"суперсрочный","гибкая печатная плата","")</f>
-        <v>гибкая печатная плата</v>
+        <v/>
       </c>
       <c r="H13" s="174" t="str">
         <f aca="true" t="array" ref="H13:H13">IF(ROW()-ROW(mater)+1&gt;ROWS(materIshod)-COUNTBLANK(materIshod),"",INDIRECT(ADDRESS(SMALL((IF(materIshod&lt;&gt;"",ROW(materIshod),ROW()+ROWS(materIshod))),ROW()-ROW(mater)+1),COLUMN(materIshod),4)))</f>
@@ -30242,7 +30245,7 @@
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="173" t="str">
         <f aca="false">IF(AND(Лист1!$I$26&gt;3,Лист1!$I$24&lt;&gt;"суперсрочный"),"гибко-жесткая печатная плата","")</f>
-        <v>гибко-жесткая печатная плата</v>
+        <v/>
       </c>
       <c r="H14" s="174" t="str">
         <f aca="true" t="array" ref="H14:H14">IF(ROW()-ROW(mater)+1&gt;ROWS(materIshod)-COUNTBLANK(materIshod),"",INDIRECT(ADDRESS(SMALL((IF(materIshod&lt;&gt;"",ROW(materIshod),ROW()+ROWS(materIshod))),ROW()-ROW(mater)+1),COLUMN(materIshod),4)))</f>
@@ -30280,7 +30283,7 @@
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="177" t="str">
         <f aca="false">IF(Лист1!$I$24="суперсрочный","","highspeed FR4 серии TU-872 SLK (TUC)")</f>
-        <v>highspeed FR4 серии TU-872 SLK (TUC)</v>
+        <v/>
       </c>
       <c r="H17" s="174" t="str">
         <f aca="true" t="array" ref="H17:H17">IF(ROW()-ROW(mater)+1&gt;ROWS(materIshod)-COUNTBLANK(materIshod),"",INDIRECT(ADDRESS(SMALL((IF(materIshod&lt;&gt;"",ROW(materIshod),ROW()+ROWS(materIshod))),ROW()-ROW(mater)+1),COLUMN(materIshod),4)))</f>
@@ -30566,13 +30569,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="132" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B35" s="132" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C35" s="132" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J35" s="180"/>
     </row>
@@ -30582,7 +30585,7 @@
         <v>FR4 типовой</v>
       </c>
       <c r="B36" s="181" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J36" s="180"/>
     </row>
@@ -30634,19 +30637,19 @@
       <c r="D39" s="184" t="n">
         <v>35</v>
       </c>
-      <c r="E39" s="185" t="n">
+      <c r="E39" s="185" t="str">
         <f aca="false">IF(Лист1!$I$24="Стандартный",70,"")</f>
-        <v>70</v>
-      </c>
-      <c r="F39" s="185" t="n">
+        <v/>
+      </c>
+      <c r="F39" s="185" t="str">
         <f aca="false">IF(Лист1!$I$24="Стандартный",105,"")</f>
-        <v>105</v>
+        <v/>
       </c>
       <c r="J39" s="180"/>
     </row>
     <row r="40" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="173" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B40" s="182" t="str">
         <f aca="false">IF(AND(Лист1!I26&lt;3,Лист1!I27&lt;&gt;"FR4 HiTg150"),0.8,"")</f>
@@ -30658,19 +30661,19 @@
       <c r="D40" s="183" t="n">
         <v>35</v>
       </c>
-      <c r="E40" s="185" t="n">
+      <c r="E40" s="185" t="str">
         <f aca="false">IF(Лист1!$I$24="Стандартный",70,"")</f>
-        <v>70</v>
-      </c>
-      <c r="F40" s="185" t="n">
+        <v/>
+      </c>
+      <c r="F40" s="185" t="str">
         <f aca="false">IF(Лист1!$I$24="Стандартный",105,"")</f>
-        <v>105</v>
+        <v/>
       </c>
       <c r="J40" s="180"/>
     </row>
     <row r="41" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="173" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B41" s="182" t="n">
         <v>1</v>
@@ -30681,19 +30684,19 @@
       <c r="D41" s="183" t="n">
         <v>35</v>
       </c>
-      <c r="E41" s="185" t="n">
+      <c r="E41" s="185" t="str">
         <f aca="false">IF(Лист1!$I$24="Стандартный",70,"")</f>
-        <v>70</v>
-      </c>
-      <c r="F41" s="185" t="n">
+        <v/>
+      </c>
+      <c r="F41" s="185" t="str">
         <f aca="false">IF(Лист1!$I$24="Стандартный",105,"")</f>
-        <v>105</v>
+        <v/>
       </c>
       <c r="J41" s="180"/>
     </row>
     <row r="42" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="173" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B42" s="182" t="n">
         <v>1.5</v>
@@ -30715,7 +30718,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="173" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B43" s="182" t="n">
         <v>2</v>
@@ -30738,26 +30741,26 @@
     <row r="44" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="187" t="str">
         <f aca="false">IF(Лист1!$I$24&lt;&gt;"суперсрочный","FR4 типовой","")</f>
-        <v>FR4 типовой</v>
-      </c>
-      <c r="B44" s="182" t="n">
+        <v/>
+      </c>
+      <c r="B44" s="182" t="str">
         <f aca="false">IF(OR(AND(Лист1!I26&lt;2,Лист1!I27&lt;&gt;"FR4 HiTg150"),Лист1!$I$24&lt;&gt;"суперсрочный"),3,"")</f>
-        <v>3</v>
-      </c>
-      <c r="C44" s="188" t="n">
+        <v/>
+      </c>
+      <c r="C44" s="188" t="str">
         <f aca="false">IF(Лист1!$I$24="Стандартный",18,"")</f>
-        <v>18</v>
-      </c>
-      <c r="D44" s="188" t="n">
+        <v/>
+      </c>
+      <c r="D44" s="188" t="str">
         <f aca="false">IF(Лист1!$I$24&lt;&gt;"суперсрочный",35,"")</f>
-        <v>35</v>
+        <v/>
       </c>
       <c r="F44" s="183" t="n">
         <v>105</v>
       </c>
-      <c r="G44" s="185" t="n">
+      <c r="G44" s="185" t="str">
         <f aca="false">IF(Лист1!$I$24="Стандартный",210,"")</f>
-        <v>210</v>
+        <v/>
       </c>
       <c r="J44" s="180"/>
     </row>
@@ -30925,7 +30928,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="173" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B56" s="182" t="n">
         <v>0.508</v>
@@ -30939,7 +30942,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="173" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B57" s="182" t="n">
         <v>0.61</v>
@@ -30953,7 +30956,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="173" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B58" s="182" t="n">
         <v>0.635</v>
@@ -30967,7 +30970,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="173" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B59" s="182" t="n">
         <v>0.508</v>
@@ -30981,7 +30984,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="173" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B60" s="182" t="n">
         <v>0.61</v>
@@ -30995,7 +30998,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="173" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B61" s="182" t="n">
         <v>0.762</v>
@@ -31009,7 +31012,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="173" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B62" s="182" t="n">
         <v>1.524</v>
@@ -31023,7 +31026,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="173" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B63" s="182" t="n">
         <v>0.508</v>
@@ -31037,7 +31040,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="173" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B64" s="182" t="n">
         <v>0.635</v>
@@ -31051,7 +31054,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="173" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B65" s="182" t="n">
         <v>1.27</v>
@@ -31065,7 +31068,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="173" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B66" s="182" t="n">
         <v>0.508</v>
@@ -31118,7 +31121,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="191" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B69" s="182" t="n">
         <v>0.5</v>
@@ -31135,7 +31138,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="191" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B70" s="182" t="n">
         <v>0.8</v>
@@ -31146,9 +31149,9 @@
       <c r="D70" s="183" t="n">
         <v>35</v>
       </c>
-      <c r="E70" s="188" t="n">
+      <c r="E70" s="188" t="str">
         <f aca="false">IF(Лист1!$I$24="Стандартный",70,"")</f>
-        <v>70</v>
+        <v/>
       </c>
       <c r="I70" s="132"/>
       <c r="J70" s="132"/>
@@ -31156,7 +31159,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="191" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B71" s="182" t="n">
         <v>1</v>
@@ -31167,9 +31170,9 @@
       <c r="D71" s="183" t="n">
         <v>35</v>
       </c>
-      <c r="E71" s="188" t="n">
+      <c r="E71" s="188" t="str">
         <f aca="false">IF(Лист1!$I$24="Стандартный",105,"")</f>
-        <v>105</v>
+        <v/>
       </c>
       <c r="I71" s="132"/>
       <c r="J71" s="132"/>
@@ -31177,7 +31180,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="191" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B72" s="182" t="n">
         <v>1.5</v>
@@ -31194,7 +31197,7 @@
     </row>
     <row r="73" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="173" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B73" s="181" t="n">
         <v>0.203</v>
@@ -31212,7 +31215,7 @@
     </row>
     <row r="74" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="173" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B74" s="181" t="n">
         <v>0.305</v>
@@ -31221,17 +31224,17 @@
         <v>18</v>
       </c>
       <c r="D74" s="173"/>
-      <c r="E74" s="173" t="n">
+      <c r="E74" s="173" t="str">
         <f aca="false">IF(Лист1!$I$24="Стандартный",70,"")</f>
-        <v>70</v>
-      </c>
-      <c r="F74" s="173" t="n">
+        <v/>
+      </c>
+      <c r="F74" s="173" t="str">
         <f aca="false">IF(Лист1!$I$24="Стандартный",105,"")</f>
-        <v>105</v>
-      </c>
-      <c r="G74" s="173" t="n">
+        <v/>
+      </c>
+      <c r="G74" s="173" t="str">
         <f aca="false">IF(Лист1!$I$24="Стандартный",140,"")</f>
-        <v>140</v>
+        <v/>
       </c>
       <c r="I74" s="132"/>
       <c r="J74" s="132"/>
@@ -31239,7 +31242,7 @@
     </row>
     <row r="75" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="173" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B75" s="181" t="n">
         <v>0.508</v>
@@ -31259,7 +31262,7 @@
     </row>
     <row r="76" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="173" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B76" s="181" t="n">
         <v>0.813</v>
@@ -31276,7 +31279,7 @@
     </row>
     <row r="77" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="173" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B77" s="181" t="n">
         <v>1.524</v>
@@ -31291,7 +31294,7 @@
     </row>
     <row r="78" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="173" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B78" s="182" t="n">
         <v>0.508</v>
@@ -31313,7 +31316,7 @@
     </row>
     <row r="80" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="173" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B80" s="182" t="n">
         <v>0.254</v>
@@ -31327,7 +31330,7 @@
     </row>
     <row r="81" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="173" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B81" s="181" t="n">
         <v>0.338</v>
@@ -31341,7 +31344,7 @@
     </row>
     <row r="82" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="173" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B82" s="181" t="n">
         <v>0.508</v>
@@ -31358,7 +31361,7 @@
     </row>
     <row r="83" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="173" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B83" s="181" t="n">
         <v>0.762</v>
@@ -31375,7 +31378,7 @@
     </row>
     <row r="84" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="173" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B84" s="181" t="n">
         <v>1.524</v>
@@ -31414,7 +31417,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="173" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B88" s="182" t="n">
         <v>1.524</v>
@@ -31448,7 +31451,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="173" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B91" s="182" t="n">
         <v>0.254</v>
@@ -31466,7 +31469,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="173" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B92" s="182" t="n">
         <v>0.533</v>
@@ -31484,7 +31487,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="173" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B93" s="182" t="n">
         <v>0.8</v>
@@ -31499,7 +31502,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="173" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B94" s="194" t="n">
         <v>1</v>
@@ -31518,7 +31521,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="173" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B95" s="194" t="n">
         <v>1.5</v>
@@ -31537,7 +31540,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="173" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B96" s="194" t="n">
         <v>2</v>
@@ -31556,7 +31559,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="177" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B97" s="194" t="n">
         <v>1.5</v>
@@ -31571,7 +31574,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="177" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B98" s="194" t="n">
         <v>1</v>
@@ -31592,7 +31595,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="177" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B99" s="194" t="n">
         <v>1.5</v>
@@ -31613,7 +31616,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="177" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B100" s="194" t="n">
         <v>2</v>
@@ -31634,7 +31637,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="177" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B101" s="194" t="n">
         <v>1.016</v>
@@ -31654,7 +31657,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="177" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B102" s="194" t="n">
         <v>1.524</v>
@@ -31674,7 +31677,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="177" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B103" s="194" t="n">
         <v>2.032</v>
@@ -31694,7 +31697,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="177" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B104" s="194" t="n">
         <v>0.254</v>
@@ -31712,7 +31715,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="177" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B105" s="194" t="n">
         <v>0.508</v>
@@ -31730,7 +31733,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="177" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B106" s="194" t="n">
         <v>0.508</v>
@@ -31747,7 +31750,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="177" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B107" s="194" t="n">
         <v>1.5</v>
@@ -31806,7 +31809,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="177" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B111" s="194" t="n">
         <v>1</v>
@@ -31832,7 +31835,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="177" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B112" s="194" t="n">
         <v>1.5</v>
@@ -31856,7 +31859,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="177" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B113" s="194" t="n">
         <v>2</v>
@@ -31890,13 +31893,13 @@
     </row>
     <row r="115" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="173" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B115" s="134" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C115" s="134" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I115" s="132"/>
       <c r="J115" s="132"/>
@@ -31904,7 +31907,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="132" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B116" s="194" t="n">
         <v>0.8</v>
@@ -31922,7 +31925,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="132" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B117" s="194" t="n">
         <v>1</v>
@@ -31940,7 +31943,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="132" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B118" s="194" t="n">
         <v>1.5</v>
@@ -31958,7 +31961,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="132" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B119" s="194" t="n">
         <v>2</v>
@@ -31976,13 +31979,13 @@
     </row>
     <row r="120" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="132" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B120" s="132" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C120" s="132" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I120" s="132"/>
       <c r="J120" s="132"/>
@@ -31990,13 +31993,13 @@
     </row>
     <row r="121" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="132" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B121" s="132" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C121" s="132" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -32030,7 +32033,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -32053,7 +32056,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
     </sheetView>
   </sheetViews>
